--- a/leetcode/leetcode_linked_list.xlsx
+++ b/leetcode/leetcode_linked_list.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518FC0A9-25A7-4534-8690-C8EC4D5936C1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{108F2716-20F3-4681-92A9-6882564AE927}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="10" r:id="rId1"/>
     <sheet name="28" sheetId="15" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="16" r:id="rId3"/>
+    <sheet name="fast low" sheetId="16" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="76">
   <si>
     <r>
       <t xml:space="preserve">class </t>
@@ -1278,13 +1278,80 @@
   </si>
   <si>
     <t>2n+1轴扩散 &amp; 马拉车</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>m = i + xn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    circleEntryPostion：入环点</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    beginPostion：起始点</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    n: 环长</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    m：起始点到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>入环点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的长度</t>
+    </r>
+  </si>
+  <si>
+    <t>2m = m + i + xn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      i` = i</t>
+  </si>
+  <si>
+    <r>
+      <t>m：起始点到</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>入环点</t>
+    </r>
+  </si>
+  <si>
+    <t>n： 环长</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1361,6 +1428,19 @@
       <name val="Courier New"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1410,7 +1490,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1471,6 +1551,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1571,6 +1653,900 @@
         <a:xfrm>
           <a:off x="10839450" y="609600"/>
           <a:ext cx="10171428" cy="2485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276224</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Flowchart: Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF89288D-9452-483C-BA5C-D57A678D598C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5029199" y="2266949"/>
+          <a:ext cx="1952625" cy="1990725"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>519112</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF93C2CB-69D9-4B5C-AD4E-01004C2FCF6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="4"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1428750" y="4257674"/>
+          <a:ext cx="4576762" cy="57151"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEB298F0-E27A-4D27-A8BF-878A5B6641E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="6"/>
+          <a:endCxn id="21" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5153025" y="3567113"/>
+          <a:ext cx="1704975" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1">
+              <a:lumMod val="50000"/>
+              <a:alpha val="99000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Flowchart: Connector 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{026D9587-E6AD-408F-A893-246F59859EFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5924550" y="4190999"/>
+          <a:ext cx="142875" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Flowchart: Connector 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13B94905-036F-419B-A662-FBD8C991A960}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6858000" y="3495675"/>
+          <a:ext cx="142875" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Flowchart: Connector 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E20DDEFF-21B1-47E9-ACE8-E71DD0E573CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5010150" y="3505200"/>
+          <a:ext cx="142875" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466724</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Callout: Bent Line 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02283E3D-1BFB-4057-A6CB-78670A4A5558}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7781924" y="3067049"/>
+          <a:ext cx="3381376" cy="542926"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 53837"/>
+            <a:gd name="adj2" fmla="val -446"/>
+            <a:gd name="adj3" fmla="val 69627"/>
+            <a:gd name="adj4" fmla="val -11597"/>
+            <a:gd name="adj5" fmla="val 89548"/>
+            <a:gd name="adj6" fmla="val -24474"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>harePos</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>： 兔子在乌龟进入入环点时在环上的位置</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>i:  harePos</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>到</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>入环点</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>的距离</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Callout: Bent Line 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F7E546E-4B48-4B15-BEF2-09338E6F6B06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="3133725"/>
+          <a:ext cx="2924175" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout2">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 52083"/>
+            <a:gd name="adj2" fmla="val 101065"/>
+            <a:gd name="adj3" fmla="val 69628"/>
+            <a:gd name="adj4" fmla="val 119133"/>
+            <a:gd name="adj5" fmla="val 86306"/>
+            <a:gd name="adj6" fmla="val 131313"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>meetPostion</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>： 兔子和乌龟在环上的相交位置 </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="Straight Connector 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95F818D0-3924-4B01-A649-18F957281501}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6819900" y="2762250"/>
+          <a:ext cx="28575" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C92D0F00-3F50-41B3-AF6C-E056EF2C428A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6848475" y="2771775"/>
+          <a:ext cx="133350" cy="66675"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Flowchart: Connector 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74CEE435-817A-4D2B-87D8-28B0C225E3B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="4257675"/>
+          <a:ext cx="142875" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartConnector">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Arrow: Right 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EC3BCB5-A752-4134-A009-82F4599D653A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2781300" y="5210176"/>
+          <a:ext cx="190500" cy="104774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>151086</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>180500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6E90777-FE9C-4618-ACA5-5D94E0690345}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="6096000"/>
+          <a:ext cx="10514286" cy="3800000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1848,8 +2824,8 @@
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1989,7 +2965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9F89C14-EB96-41AE-ABD4-B3EA5731EAEA}">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
@@ -2425,13 +3401,63 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD42F23-296C-4994-AE93-F773F401E93F}">
-  <dimension ref="A1"/>
+  <dimension ref="C22:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>73</v>
+      </c>
+      <c r="L22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C24" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G24" t="s">
+        <v>66</v>
+      </c>
+      <c r="J24" s="24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+      <c r="J25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
